--- a/medicine/Pharmacie/Myorelaxant/Myorelaxant.xlsx
+++ b/medicine/Pharmacie/Myorelaxant/Myorelaxant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un myorelaxant est un médicament ou une substance ayant pour effet de décontracter les muscles. 
-Le thiocolchicoside (Miorel ou Coltramyl) et le méthaqualone sont des médicaments utilisés lors de contractions musculaires. Le tétrazépam (Myolastan) a été utilisé à cette fin jusqu'à son retrait du marché européen en juillet 2013 en raison d'accidents cutanés[1]. Au Canada, prescripteurs et patients ont recours à la cyclobenzaprine (Flexeril).
+Le thiocolchicoside (Miorel ou Coltramyl) et le méthaqualone sont des médicaments utilisés lors de contractions musculaires. Le tétrazépam (Myolastan) a été utilisé à cette fin jusqu'à son retrait du marché européen en juillet 2013 en raison d'accidents cutanés. Au Canada, prescripteurs et patients ont recours à la cyclobenzaprine (Flexeril).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Molécules pharmacologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Toutes les benzodiazépines possèdent des propriétés myorelaxantes. Le tétrazépam était la seule benzodiazépine qui possédait une AMM "traitement d'appoint des contractures musculaires", mais il a été retiré du marché[2]. Hors AMM, certaines benzodiazépines sont toujours utilisées dans ce but (diazépam, oxazépam...) ;
-la méphénésine (Décontractyl), retiré du marché à compter du 28 juin 2019[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Toutes les benzodiazépines possèdent des propriétés myorelaxantes. Le tétrazépam était la seule benzodiazépine qui possédait une AMM "traitement d'appoint des contractures musculaires", mais il a été retiré du marché. Hors AMM, certaines benzodiazépines sont toujours utilisées dans ce but (diazépam, oxazépam...) ;
+la méphénésine (Décontractyl), retiré du marché à compter du 28 juin 2019.
 le méthocarbamol (Lumirelax, liste II), non remboursé à cause d'une mauvaise balance bénéfice-risque ;
 le thiocolchicoside (Coltramyl, Miorel, liste I), non remboursé à cause d'une mauvaise balance bénéfice-risque ;
 l'acide gamma-hydroxybutyrique (GHB), utilisé à l'origine comme anesthésiant pour des opérations chirurgicales.
@@ -550,9 +564,11 @@
           <t>Effets secondaires ou indésirables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains myorelaxants, comme les anesthésiques généraux, peuvent induire une réaction allergique de type choc anaphylactique ou anaphylactoïde via une histaminolibération non spécifique[4]. Des anomalies de l'histaminolibération et de la réactivité à l'histamine sont fréquentes chez les sujets ayant de telles réactions. Elles peuvent être appréciées par tests cutanés au 48/80 et à l'histamine ; « Quel que soit le mécanisme du choc, l'incidence d'une spasmophilie est élevée et des antécédents d'intolérance non immunologique à l'aspirine et aux anti-inflammatoires non stéroïdiens sont fréquemment retrouvés par rapport à la population de référence. Cependant 25 % des sujets étudiés ne présentent aucun de ces facteurs de risque[4]. » Chez les sujets à risque, une prémédication anxiolytique et antihistaminique peut être prescrite, avec mise en place des conditions prévention du bronchospasme.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains myorelaxants, comme les anesthésiques généraux, peuvent induire une réaction allergique de type choc anaphylactique ou anaphylactoïde via une histaminolibération non spécifique. Des anomalies de l'histaminolibération et de la réactivité à l'histamine sont fréquentes chez les sujets ayant de telles réactions. Elles peuvent être appréciées par tests cutanés au 48/80 et à l'histamine ; « Quel que soit le mécanisme du choc, l'incidence d'une spasmophilie est élevée et des antécédents d'intolérance non immunologique à l'aspirine et aux anti-inflammatoires non stéroïdiens sont fréquemment retrouvés par rapport à la population de référence. Cependant 25 % des sujets étudiés ne présentent aucun de ces facteurs de risque. » Chez les sujets à risque, une prémédication anxiolytique et antihistaminique peut être prescrite, avec mise en place des conditions prévention du bronchospasme.
 </t>
         </is>
       </c>
@@ -581,10 +597,12 @@
           <t>Retraits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En juillet 2013, le tétrazépam (ou Myolastan) est retiré du marché européen, en raison d'accidents cutanés tels que le syndrome de Stevens-Johnson[1] ;
-En 2020, la méphénésine (Décontractyl, Décontractyl Baume), qui figurait déjà en 2019 sur la liste noire de la revue médicale Prescrire (médicaments à éviter, car inutiles et/ou dangereux) est retiré du marché en France (mais pas en Belgique)[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En juillet 2013, le tétrazépam (ou Myolastan) est retiré du marché européen, en raison d'accidents cutanés tels que le syndrome de Stevens-Johnson ;
+En 2020, la méphénésine (Décontractyl, Décontractyl Baume), qui figurait déjà en 2019 sur la liste noire de la revue médicale Prescrire (médicaments à éviter, car inutiles et/ou dangereux) est retiré du marché en France (mais pas en Belgique).</t>
         </is>
       </c>
     </row>
@@ -612,9 +630,11 @@
           <t>Code ATC</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la classification anatomique, thérapeutique et chimique (ATC) de l'OMS, c'est le code M03 qui leur est attribué[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la classification anatomique, thérapeutique et chimique (ATC) de l'OMS, c'est le code M03 qui leur est attribué.
 </t>
         </is>
       </c>
